--- a/test.xlsx
+++ b/test.xlsx
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:N208"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
